--- a/console/Elastic-Compute/Virtual-Machine/computeXlsx/components/elasticNetWork/elasticNetWorkListItem.xlsx
+++ b/console/Elastic-Compute/Virtual-Machine/computeXlsx/components/elasticNetWork/elasticNetWorkListItem.xlsx
@@ -1,25 +1,412 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr codeName="ThisWorkbook"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\8月分配\SN205-LF0028-180821-console_Output-译文-ZZH处理\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <bookViews>
+    <workbookView xWindow="0" yWindow="0" windowWidth="10740" windowHeight="7905"/>
+  </bookViews>
   <sheets>
     <sheet name="cn" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
+  <si>
+    <t>mainIp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">'Primary IP' </t>
+  </si>
+  <si>
+    <t>assistIp</t>
+  </si>
+  <si>
+    <t>'Secondary IP'</t>
+  </si>
+  <si>
+    <t>only_runOrStop_can_unbindIp</t>
+  </si>
+  <si>
+    <t>Only the running or stopped virtual machine allows to disassociate EIP</t>
+  </si>
+  <si>
+    <t>unbind_ip</t>
+  </si>
+  <si>
+    <t>Disassociate EIP</t>
+  </si>
+  <si>
+    <t>only_runOrStop_can_bindIp</t>
+  </si>
+  <si>
+    <t>Only the running or stopped virtual machine allows to associate EIP</t>
+  </si>
+  <si>
+    <t>bind_ip</t>
+  </si>
+  <si>
+    <t>Associate EIP</t>
+  </si>
+  <si>
+    <t>mainIp_cannot_release</t>
+  </si>
+  <si>
+    <t>Primary IP does not allow to release</t>
+  </si>
+  <si>
+    <t>release</t>
+  </si>
+  <si>
+    <t>Release</t>
+  </si>
+  <si>
+    <t>only_runOrStop_can_release</t>
+  </si>
+  <si>
+    <t>Only the running or stopped virtual machine allows to release</t>
+  </si>
+  <si>
+    <t>cancel</t>
+  </si>
+  <si>
+    <t>Cancel</t>
+  </si>
+  <si>
+    <t>select_pip</t>
+  </si>
+  <si>
+    <t xml:space="preserve">'Please select EIP' </t>
+  </si>
+  <si>
+    <t>confirtm</t>
+  </si>
+  <si>
+    <t>OK</t>
+  </si>
+  <si>
+    <t>release_intranetIp</t>
+  </si>
+  <si>
+    <t>Release Private IP</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+      </rPr>
+      <t>释放</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+      </rPr>
+      <t>仅运行或停止状态云主机允许释放</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+      </rPr>
+      <t>主</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">IP' </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+      </rPr>
+      <t>辅</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>IP'</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+      </rPr>
+      <t>仅运行或停止状态云主机允许解绑公网</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>IP</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+      </rPr>
+      <t>解绑公网</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>IP</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+      </rPr>
+      <t>仅运行或停止状态云主机允许绑定公网</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>IP</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+      </rPr>
+      <t>绑定公网</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>IP</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+      </rPr>
+      <t>主</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>IP</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+      </rPr>
+      <t>不允许释放</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+      </rPr>
+      <t>取</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+      </rPr>
+      <t>消</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+      </rPr>
+      <t>请选择公网</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">IP' </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+      </rPr>
+      <t>确</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+      </rPr>
+      <t>定</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+      </rPr>
+      <t>释放内网</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>IP</t>
+    </r>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:vt="http://schemas.openxmlformats.org/officeDocument/2006/docPropsVTypes">
-  <numFmts count="1">
-    <numFmt numFmtId="56" formatCode="&quot;上午/下午 &quot;hh&quot;時&quot;mm&quot;分&quot;ss&quot;秒 &quot;"/>
-  </numFmts>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -42,14 +429,23 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -374,119 +770,169 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B13"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C13"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
+    </sheetView>
   </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="30.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="40.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="78.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="9" style="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="str">
-        <v>mainIp</v>
-      </c>
-      <c r="B1" t="str">
-        <v xml:space="preserve">'主IP' </v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="str">
-        <v>assistIp</v>
-      </c>
-      <c r="B2" t="str">
-        <v>'辅IP'</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="str">
-        <v>only_runOrStop_can_unbindIp</v>
-      </c>
-      <c r="B3" t="str">
-        <v>仅运行或停止状态云主机允许解绑公网IP</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="str">
-        <v>unbind_ip</v>
-      </c>
-      <c r="B4" t="str">
-        <v>解绑公网IP</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="str">
-        <v>only_runOrStop_can_bindIp</v>
-      </c>
-      <c r="B5" t="str">
-        <v>仅运行或停止状态云主机允许绑定公网IP</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="str">
-        <v>bind_ip</v>
-      </c>
-      <c r="B6" t="str">
-        <v>绑定公网IP</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="str">
-        <v>mainIp_cannot_release</v>
-      </c>
-      <c r="B7" t="str">
-        <v>主IP不允许释放</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="str">
-        <v>release</v>
-      </c>
-      <c r="B8" t="str">
-        <v>释放</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="str">
-        <v>only_runOrStop_can_release</v>
-      </c>
-      <c r="B9" t="str">
-        <v>仅运行或停止状态云主机允许释放</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="str">
-        <v>cancel</v>
-      </c>
-      <c r="B10" t="str">
-        <v>取 消</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="str">
-        <v>select_pip</v>
-      </c>
-      <c r="B11" t="str">
-        <v xml:space="preserve">'请选择公网IP' </v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="str">
-        <v>confirtm</v>
-      </c>
-      <c r="B12" t="str">
-        <v>确 定</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="str">
-        <v>release_intranetIp</v>
-      </c>
-      <c r="B13" t="str">
-        <v>释放内网IP</v>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>25</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:B13"/>
+    <ignoredError sqref="C1:C13 A1:A13" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>